--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學乙(上).xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學乙(上).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 接著是數學數學乙(上) skill_curricul" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 接著是數學數學乙(上) skill_curricul" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -217,17 +225,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,36 +252,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -455,20 +478,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -505,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -517,16 +545,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -534,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -546,16 +574,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -563,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -575,16 +603,16 @@
         <v>13</v>
       </c>
       <c r="G4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -592,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -604,16 +632,16 @@
         <v>17</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -621,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -633,16 +661,16 @@
         <v>17</v>
       </c>
       <c r="G6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -650,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -662,16 +690,16 @@
         <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -679,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -691,16 +719,16 @@
         <v>21</v>
       </c>
       <c r="G8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -708,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -720,16 +748,16 @@
         <v>24</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -737,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -749,16 +777,16 @@
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -766,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -778,16 +806,16 @@
         <v>27</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -795,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -807,16 +835,16 @@
         <v>27</v>
       </c>
       <c r="G12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -824,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -836,16 +864,16 @@
         <v>31</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -853,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -865,16 +893,16 @@
         <v>31</v>
       </c>
       <c r="G14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -882,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -894,16 +922,16 @@
         <v>31</v>
       </c>
       <c r="G15" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -911,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -923,16 +951,16 @@
         <v>35</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -940,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -952,16 +980,16 @@
         <v>37</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -969,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -981,16 +1009,16 @@
         <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -998,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1010,16 +1038,16 @@
         <v>42</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1027,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1039,16 +1067,16 @@
         <v>44</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1056,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -1068,16 +1096,16 @@
         <v>44</v>
       </c>
       <c r="G21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1097,16 +1125,16 @@
         <v>47</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1114,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1126,16 +1154,16 @@
         <v>49</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1143,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1155,16 +1183,16 @@
         <v>52</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1172,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1184,16 +1212,16 @@
         <v>54</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1201,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -1213,16 +1241,16 @@
         <v>56</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1230,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1242,16 +1270,16 @@
         <v>56</v>
       </c>
       <c r="G27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1259,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1271,16 +1299,16 @@
         <v>59</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1288,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1300,16 +1328,16 @@
         <v>59</v>
       </c>
       <c r="G29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1317,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1329,16 +1357,16 @@
         <v>63</v>
       </c>
       <c r="G30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1346,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -1358,16 +1386,16 @@
         <v>65</v>
       </c>
       <c r="G31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1375,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1387,16 +1415,18 @@
         <v>65</v>
       </c>
       <c r="G32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>